--- a/Message client_server.xlsx
+++ b/Message client_server.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819FC175-B554-4D61-99E1-E513C1F7F9B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB93BCD6-27BF-43D5-AB60-58AF9D2EEB7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>data_type</t>
   </si>
@@ -1210,11 +1210,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1606,6 +1609,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>